--- a/resources/Beam Analysis - lab_beam.xlsx
+++ b/resources/Beam Analysis - lab_beam.xlsx
@@ -980,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="3">
-        <v>0.8764394736842104</v>
+        <v>0.8764394736842105</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -994,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3">
-        <v>0.7332203947368421</v>
+        <v>0.7332203947368422</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>

--- a/resources/Beam Analysis - lab_beam.xlsx
+++ b/resources/Beam Analysis - lab_beam.xlsx
@@ -267,7 +267,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="lab_beam - heat map.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="lab_beam - 2d heat map.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -282,6 +282,44 @@
         <a:xfrm>
           <a:off x="8420100" y="3048000"/>
           <a:ext cx="2791974" cy="2596901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295661</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="lab_beam - 3d heat map.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="3048000"/>
+          <a:ext cx="2734061" cy="2407925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/resources/Beam Analysis - lab_beam.xlsx
+++ b/resources/Beam Analysis - lab_beam.xlsx
@@ -261,9 +261,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>353574</xdr:colOff>
+      <xdr:colOff>280421</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>120401</xdr:rowOff>
+      <xdr:rowOff>117353</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -281,7 +281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8420100" y="3048000"/>
-          <a:ext cx="2791974" cy="2596901"/>
+          <a:ext cx="2718821" cy="2593853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -298,10 +298,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295661</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484637</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>121925</xdr:rowOff>
+      <xdr:rowOff>27437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -319,7 +319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11468100" y="3048000"/>
-          <a:ext cx="2734061" cy="2407925"/>
+          <a:ext cx="2313437" cy="2313437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -348,7 +348,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="lab_beam - top-hat factor.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="lab_beam - energy curve.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
